--- a/数据整理/stocks/A股/深证主板/002376-新北洋.xlsx
+++ b/数据整理/stocks/A股/深证主板/002376-新北洋.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,25 +502,35 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>000309</t>
+          <t>233006</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>大摩品质生活精选股票</t>
+          <t>大摩领先优势混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>94.69</t>
+          <t>4.30</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>9.44</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.28</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3990</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -520,25 +540,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009893</t>
+          <t>000309</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>摩根士丹利华鑫优悦安和混合</t>
+          <t>大摩品质生活精选股票</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>94.33</t>
+          <t>3.21</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>9.53</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.44</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3030</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -548,25 +578,35 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>233006</t>
+          <t>009893</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>大摩领先优势混合</t>
+          <t>摩根士丹利华鑫优悦安和混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>94.39</t>
+          <t>2.04</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>9.28</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.53</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1944</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -586,15 +626,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>94.09</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>4.00</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0772</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>7</v>
       </c>
     </row>
@@ -609,7 +659,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -630,15 +680,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -650,26 +710,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>000309</t>
+          <t>233006</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>大摩品质生活精选股票</t>
+          <t>大摩领先优势混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>94.72</t>
+          <t>3.79</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>9.01</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>3</v>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.27</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3513</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -678,26 +748,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>233006</t>
+          <t>000309</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>大摩领先优势混合</t>
+          <t>大摩品质生活精选股票</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>94.58</t>
+          <t>2.62</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>9.27</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>2</v>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.01</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2361</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -706,26 +786,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>350002</t>
+          <t>002707</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>天治低碳经济灵活配置混合</t>
+          <t>摩根士丹利华鑫科技领先灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>66.12</t>
+          <t>1.36</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.91</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>4</v>
+          <t>92.34</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.72</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1050</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -734,26 +824,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>002707</t>
+          <t>350002</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>摩根士丹利华鑫科技领先灵活配置混合</t>
+          <t>天治低碳经济灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>92.34</t>
+          <t>2.07</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>7.72</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>3</v>
+          <t>66.12</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0809</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/002376-新北洋.xlsx
+++ b/数据整理/stocks/A股/深证主板/002376-新北洋.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -859,4 +860,212 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010322</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫新兴产业股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.16</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.76</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5719</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>233006</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大摩领先优势混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.04</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3978</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000309</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大摩品质生活精选股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.03</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2817</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002707</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫科技领先灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.32</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0901</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002376-新北洋.xlsx
+++ b/数据整理/stocks/A股/深证主板/002376-新北洋.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1068,4 +1069,212 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>233006</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大摩领先优势混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3978</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010322</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫新兴产业股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.91</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3696</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000309</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大摩品质生活精选股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3060</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002707</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫科技领先灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1099</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002376-新北洋.xlsx
+++ b/数据整理/stocks/A股/深证主板/002376-新北洋.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1277,4 +1278,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.97</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002376-新北洋.xlsx
+++ b/数据整理/stocks/A股/深证主板/002376-新北洋.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1286,7 +1287,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1297,17 +1298,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1317,14 +1338,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.18</v>
+          <t>012368</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫优享臻选六个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.82</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7149</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -1333,14 +1376,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.34</v>
+          <t>233006</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大摩领先优势混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.01</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4956</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -1349,14 +1414,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.77</v>
+          <t>000309</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大摩品质生活精选股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.77</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3791</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -1365,13 +1452,341 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>010322</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫新兴产业股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.80</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3234</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005984</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>兴业聚华混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>21.22</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>20.35</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2504</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002707</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫科技领先灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1382</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012369</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫优享臻选六个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>9.82</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0589</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005985</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>兴业聚华混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>20.35</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0428</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004641</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>万家量化睿选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.84</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.41</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>4</v>
       </c>
       <c r="D5" t="n">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="n">
         <v>0.97</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002376-新北洋.xlsx
+++ b/数据整理/stocks/A股/深证主板/002376-新北洋.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1685,7 +1686,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1696,17 +1697,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1716,14 +1737,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>9</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.41</v>
+          <t>012368</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫优享臻选六个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>10.06</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5795</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -1732,14 +1775,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.18</v>
+          <t>233006</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大摩领先优势混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>10.15</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4182</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -1748,14 +1813,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.34</v>
+          <t>000309</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大摩品质生活精选股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.76</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3819</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -1764,14 +1851,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.77</v>
+          <t>010322</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫新兴产业股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>10.35</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2494</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -1780,13 +1889,205 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>002707</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫科技领先灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1142</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012369</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫优享臻选六个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>10.06</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0402</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.78</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.41</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>4</v>
       </c>
       <c r="D6" t="n">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>4</v>
+      </c>
+      <c r="D7" t="n">
         <v>0.97</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002376-新北洋.xlsx
+++ b/数据整理/stocks/A股/深证主板/002376-新北洋.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1970,7 +1971,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1981,17 +1982,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2001,14 +2022,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.78</v>
+          <t>012368</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫优享臻选六个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.64</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5543</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -2017,14 +2060,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>9</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.41</v>
+          <t>233006</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大摩领先优势混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.84</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4192</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -2033,14 +2098,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.18</v>
+          <t>000309</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大摩品质生活精选股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.76</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3211</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -2049,14 +2136,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.34</v>
+          <t>010322</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫新兴产业股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>95.16</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.96</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2619</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -2065,14 +2174,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
+          <t>210005</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>金鹰主题优势混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.85</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1515</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>4</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.77</v>
       </c>
     </row>
     <row r="7">
@@ -2081,13 +2212,259 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>002707</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫科技领先灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1070</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012369</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫优享臻选六个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>9.64</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0395</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>014871</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫科技领先灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.86</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.78</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>9</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.41</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>4</v>
       </c>
       <c r="D7" t="n">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>4</v>
+      </c>
+      <c r="D8" t="n">
         <v>0.97</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002376-新北洋.xlsx
+++ b/数据整理/stocks/A股/深证主板/002376-新北洋.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>8</v>
       </c>
       <c r="D2" t="n">
-        <v>1.86</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D3" t="n">
-        <v>1.78</v>
+        <v>1.86</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>2.41</v>
+        <v>1.78</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D5" t="n">
-        <v>1.18</v>
+        <v>2.41</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>1.34</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>4</v>
       </c>
       <c r="D7" t="n">
-        <v>0.77</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>4</v>
       </c>
       <c r="D8" t="n">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>4</v>
+      </c>
+      <c r="D9" t="n">
         <v>0.97</v>
       </c>
     </row>
@@ -661,31 +678,31 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>摩根士丹利华鑫优享臻选六个月持有期混合型证券投资基金A</t>
+          <t>摩根士丹利华鑫优享臻选六个月持有期混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>5.75</t>
+          <t>4.42</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.29</t>
+          <t>94.05</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>9.64</t>
+          <t>9.30</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.5543</t>
+          <t>0.4111</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -704,26 +721,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4.26</t>
+          <t>3.47</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.35</t>
+          <t>94.24</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>9.84</t>
+          <t>9.78</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.4192</t>
+          <t>0.3394</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -742,26 +759,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3.29</t>
+          <t>3.42</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.47</t>
+          <t>94.27</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>9.76</t>
+          <t>9.09</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.3211</t>
+          <t>0.3109</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -775,31 +792,31 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>摩根士丹利华鑫新兴产业股票</t>
+          <t>大摩新兴产业股票</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.63</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>95.16</t>
+          <t>94.19</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>9.96</t>
+          <t>9.68</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.2619</t>
+          <t>0.1917</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -818,26 +835,26 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3.66</t>
+          <t>3.16</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>94.85</t>
+          <t>94.13</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.14</t>
+          <t>4.84</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.1515</t>
+          <t>0.1529</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -851,31 +868,31 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>摩根士丹利华鑫科技领先灵活配置混合</t>
+          <t>摩根士丹利华鑫科技领先灵活配置混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>94.27</t>
+          <t>94.13</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>5.35</t>
+          <t>3.19</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.1070</t>
+          <t>0.0558</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -889,31 +906,31 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>摩根士丹利华鑫优享臻选六个月持有期混合型证券投资基金C</t>
+          <t>摩根士丹利华鑫优享臻选六个月持有期混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.41</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>94.29</t>
+          <t>94.05</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>9.64</t>
+          <t>9.30</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0395</t>
+          <t>0.0279</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -932,26 +949,26 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>94.27</t>
+          <t>94.13</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>5.35</t>
+          <t>3.19</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0032</t>
+          <t>0.0026</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -960,6 +977,366 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>012368</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫优享臻选六个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.64</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5543</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>233006</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大摩领先优势混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.84</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4192</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000309</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大摩品质生活精选股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.76</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3211</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010322</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫新兴产业股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>95.16</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.96</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2619</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>210005</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>金鹰主题优势混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.85</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1515</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002707</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫科技领先灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1070</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012369</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫优享臻选六个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>9.64</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0395</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>014871</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫科技领先灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1243,7 +1620,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1634,214 +2011,6 @@
       </c>
       <c r="H10" t="n">
         <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>233006</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>大摩领先优势混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>4.42</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.44</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>9.00</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.3978</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>010322</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>摩根士丹利华鑫新兴产业股票</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>3.73</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.03</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>9.91</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.3696</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>000309</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>大摩品质生活精选股票</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>3.40</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.58</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>9.00</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.3060</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>002707</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>摩根士丹利华鑫科技领先灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2.52</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>91.97</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.36</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.1099</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1906,32 +2075,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>010322</t>
+          <t>233006</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>摩根士丹利华鑫新兴产业股票</t>
+          <t>大摩领先优势混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>5.86</t>
+          <t>4.42</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>90.16</t>
+          <t>94.44</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>9.76</t>
+          <t>9.00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.5719</t>
+          <t>0.3978</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1944,32 +2113,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>233006</t>
+          <t>010322</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>大摩领先优势混合</t>
+          <t>摩根士丹利华鑫新兴产业股票</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4.40</t>
+          <t>3.73</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.09</t>
+          <t>94.03</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>9.04</t>
+          <t>9.91</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.3978</t>
+          <t>0.3696</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1992,26 +2161,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3.12</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.99</t>
+          <t>94.58</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>9.03</t>
+          <t>9.00</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.2817</t>
+          <t>0.3060</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -2030,26 +2199,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.55</t>
+          <t>2.52</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>92.32</t>
+          <t>91.97</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.81</t>
+          <t>4.36</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0901</t>
+          <t>0.1099</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -2114,32 +2283,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>233006</t>
+          <t>010322</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>大摩领先优势混合</t>
+          <t>摩根士丹利华鑫新兴产业股票</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3.79</t>
+          <t>5.86</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.58</t>
+          <t>90.16</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>9.27</t>
+          <t>9.76</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.3513</t>
+          <t>0.5719</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -2152,36 +2321,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>000309</t>
+          <t>233006</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>大摩品质生活精选股票</t>
+          <t>大摩领先优势混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.62</t>
+          <t>4.40</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.72</t>
+          <t>93.09</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>9.01</t>
+          <t>9.04</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.2361</t>
+          <t>0.3978</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -2190,36 +2359,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>002707</t>
+          <t>000309</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>摩根士丹利华鑫科技领先灵活配置混合</t>
+          <t>大摩品质生活精选股票</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.36</t>
+          <t>3.12</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>92.34</t>
+          <t>93.99</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>7.72</t>
+          <t>9.03</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1050</t>
+          <t>0.2817</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -2228,36 +2397,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>350002</t>
+          <t>002707</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>天治低碳经济灵活配置混合</t>
+          <t>摩根士丹利华鑫科技领先灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.07</t>
+          <t>1.55</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>66.12</t>
+          <t>92.32</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.91</t>
+          <t>5.81</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0809</t>
+          <t>0.0901</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -2266,6 +2435,214 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>233006</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大摩领先优势混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.27</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3513</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000309</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大摩品质生活精选股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.01</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2361</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002707</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫科技领先灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.34</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.72</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1050</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>350002</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>天治低碳经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>66.12</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0809</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/002376-新北洋.xlsx
+++ b/数据整理/stocks/A股/深证主板/002376-新北洋.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>1.49</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>8</v>
       </c>
       <c r="D3" t="n">
-        <v>1.86</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D4" t="n">
-        <v>1.78</v>
+        <v>1.86</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D5" t="n">
-        <v>2.41</v>
+        <v>1.78</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D6" t="n">
-        <v>1.18</v>
+        <v>2.41</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>4</v>
       </c>
       <c r="D7" t="n">
-        <v>1.34</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>4</v>
       </c>
       <c r="D8" t="n">
-        <v>0.77</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="9">
@@ -601,18 +602,242 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C9" t="n">
         <v>4</v>
       </c>
       <c r="D9" t="n">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>4</v>
+      </c>
+      <c r="D10" t="n">
         <v>0.97</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>233006</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大摩领先优势混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.28</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3990</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000309</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大摩品质生活精选股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.44</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3030</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009893</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫优悦安和混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.53</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1944</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002707</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫科技领先灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0772</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -622,7 +847,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -683,22 +908,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4.42</t>
+          <t>4.61</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.05</t>
+          <t>93.52</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>9.30</t>
+          <t>9.03</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.4111</t>
+          <t>0.4163</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -721,22 +946,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3.47</t>
+          <t>3.76</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.24</t>
+          <t>93.54</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>9.78</t>
+          <t>9.04</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.3394</t>
+          <t>0.3399</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -759,22 +984,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3.42</t>
+          <t>3.34</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.27</t>
+          <t>93.92</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>9.09</t>
+          <t>9.05</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.3109</t>
+          <t>0.3023</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -797,22 +1022,22 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.98</t>
+          <t>2.06</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>94.19</t>
+          <t>93.45</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>9.68</t>
+          <t>9.01</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1917</t>
+          <t>0.1856</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -835,22 +1060,22 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3.16</t>
+          <t>3.06</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>94.13</t>
+          <t>94.69</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.84</t>
+          <t>4.74</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.1529</t>
+          <t>0.1450</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -863,112 +1088,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>002707</t>
+          <t>012369</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>摩根士丹利华鑫科技领先灵活配置混合A</t>
+          <t>摩根士丹利华鑫优享臻选六个月持有期混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>94.13</t>
+          <t>93.52</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.19</t>
+          <t>9.03</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0558</t>
+          <t>0.0280</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>012369</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>摩根士丹利华鑫优享臻选六个月持有期混合C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.30</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>94.05</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>9.30</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0279</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
         <v>2</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>014871</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>摩根士丹利华鑫科技领先灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>94.13</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.19</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0026</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1038,31 +1187,31 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>摩根士丹利华鑫优享臻选六个月持有期混合型证券投资基金A</t>
+          <t>摩根士丹利华鑫优享臻选六个月持有期混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>5.75</t>
+          <t>4.42</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.29</t>
+          <t>94.05</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>9.64</t>
+          <t>9.30</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.5543</t>
+          <t>0.4111</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -1081,26 +1230,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4.26</t>
+          <t>3.47</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.35</t>
+          <t>94.24</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>9.84</t>
+          <t>9.78</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.4192</t>
+          <t>0.3394</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -1119,26 +1268,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3.29</t>
+          <t>3.42</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.47</t>
+          <t>94.27</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>9.76</t>
+          <t>9.09</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.3211</t>
+          <t>0.3109</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -1152,31 +1301,31 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>摩根士丹利华鑫新兴产业股票</t>
+          <t>大摩新兴产业股票</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.63</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>95.16</t>
+          <t>94.19</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>9.96</t>
+          <t>9.68</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.2619</t>
+          <t>0.1917</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -1195,26 +1344,26 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3.66</t>
+          <t>3.16</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>94.85</t>
+          <t>94.13</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.14</t>
+          <t>4.84</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.1515</t>
+          <t>0.1529</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -1228,31 +1377,31 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>摩根士丹利华鑫科技领先灵活配置混合</t>
+          <t>摩根士丹利华鑫科技领先灵活配置混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>94.27</t>
+          <t>94.13</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>5.35</t>
+          <t>3.19</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.1070</t>
+          <t>0.0558</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -1266,31 +1415,31 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>摩根士丹利华鑫优享臻选六个月持有期混合型证券投资基金C</t>
+          <t>摩根士丹利华鑫优享臻选六个月持有期混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.41</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>94.29</t>
+          <t>94.05</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>9.64</t>
+          <t>9.30</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0395</t>
+          <t>0.0279</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -1309,26 +1458,26 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>94.27</t>
+          <t>94.13</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>5.35</t>
+          <t>3.19</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0032</t>
+          <t>0.0026</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1337,6 +1486,366 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>012368</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫优享臻选六个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.64</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5543</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>233006</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大摩领先优势混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.84</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4192</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000309</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大摩品质生活精选股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.76</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3211</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010322</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫新兴产业股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>95.16</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.96</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2619</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>210005</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>金鹰主题优势混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.85</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1515</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002707</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫科技领先灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1070</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012369</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫优享臻选六个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>9.64</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0395</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>014871</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫科技领先灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1620,7 +2129,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2011,214 +2520,6 @@
       </c>
       <c r="H10" t="n">
         <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>233006</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>大摩领先优势混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>4.42</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.44</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>9.00</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.3978</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>010322</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>摩根士丹利华鑫新兴产业股票</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>3.73</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.03</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>9.91</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.3696</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>000309</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>大摩品质生活精选股票</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>3.40</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.58</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>9.00</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.3060</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>002707</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>摩根士丹利华鑫科技领先灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2.52</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>91.97</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.36</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.1099</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -2283,32 +2584,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>010322</t>
+          <t>233006</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>摩根士丹利华鑫新兴产业股票</t>
+          <t>大摩领先优势混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>5.86</t>
+          <t>4.42</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>90.16</t>
+          <t>94.44</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>9.76</t>
+          <t>9.00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.5719</t>
+          <t>0.3978</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -2321,32 +2622,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>233006</t>
+          <t>010322</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>大摩领先优势混合</t>
+          <t>摩根士丹利华鑫新兴产业股票</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4.40</t>
+          <t>3.73</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.09</t>
+          <t>94.03</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>9.04</t>
+          <t>9.91</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.3978</t>
+          <t>0.3696</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -2369,26 +2670,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3.12</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.99</t>
+          <t>94.58</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>9.03</t>
+          <t>9.00</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.2817</t>
+          <t>0.3060</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -2407,26 +2708,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.55</t>
+          <t>2.52</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>92.32</t>
+          <t>91.97</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.81</t>
+          <t>4.36</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0901</t>
+          <t>0.1099</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -2491,32 +2792,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>233006</t>
+          <t>010322</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>大摩领先优势混合</t>
+          <t>摩根士丹利华鑫新兴产业股票</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3.79</t>
+          <t>5.86</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.58</t>
+          <t>90.16</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>9.27</t>
+          <t>9.76</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.3513</t>
+          <t>0.5719</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -2529,36 +2830,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>000309</t>
+          <t>233006</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>大摩品质生活精选股票</t>
+          <t>大摩领先优势混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.62</t>
+          <t>4.40</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.72</t>
+          <t>93.09</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>9.01</t>
+          <t>9.04</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.2361</t>
+          <t>0.3978</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -2567,36 +2868,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>002707</t>
+          <t>000309</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>摩根士丹利华鑫科技领先灵活配置混合</t>
+          <t>大摩品质生活精选股票</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.36</t>
+          <t>3.12</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>92.34</t>
+          <t>93.99</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>7.72</t>
+          <t>9.03</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1050</t>
+          <t>0.2817</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -2605,36 +2906,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>350002</t>
+          <t>002707</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>天治低碳经济灵活配置混合</t>
+          <t>摩根士丹利华鑫科技领先灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.07</t>
+          <t>1.55</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>66.12</t>
+          <t>92.32</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.91</t>
+          <t>5.81</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0809</t>
+          <t>0.0901</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -2650,51 +2951,51 @@
   </sheetPr>
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>基金金额</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -2709,32 +3010,32 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4.30</t>
+          <t>3.79</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.39</t>
+          <t>94.58</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>9.28</t>
+          <t>9.27</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.3990</t>
+          <t>0.3513</t>
         </is>
       </c>
       <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>000309</t>
@@ -2747,105 +3048,105 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3.21</t>
+          <t>2.62</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.69</t>
+          <t>94.72</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>9.44</t>
+          <t>9.01</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.3030</t>
+          <t>0.2361</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>009893</t>
+          <t>002707</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>摩根士丹利华鑫优悦安和混合</t>
+          <t>摩根士丹利华鑫科技领先灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.04</t>
+          <t>1.36</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.33</t>
+          <t>92.34</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>9.53</t>
+          <t>7.72</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1944</t>
+          <t>0.1050</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>002707</t>
+          <t>350002</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>摩根士丹利华鑫科技领先灵活配置混合</t>
+          <t>天治低碳经济灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.93</t>
+          <t>2.07</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>94.09</t>
+          <t>66.12</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>3.91</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0772</t>
+          <t>0.0809</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>